--- a/seller/app/modules/product/template/grocery.xlsx
+++ b/seller/app/modules/product/template/grocery.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>productCode</t>
   </si>
@@ -19,6 +19,9 @@
     <t>productName</t>
   </si>
   <si>
+    <t>basePrice</t>
+  </si>
+  <si>
     <t>MRP</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>returnWindow</t>
   </si>
   <si>
-    <t>isVegetarian</t>
+    <t>vegNonVeg</t>
   </si>
   <si>
     <t>manufacturerName</t>
@@ -79,6 +82,12 @@
     <t>manufacturedDate</t>
   </si>
   <si>
+    <t>packingDate</t>
+  </si>
+  <si>
+    <t>manufacturerOrganizationName</t>
+  </si>
+  <si>
     <t>nutritionalInfo</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>isCancellable</t>
   </si>
   <si>
+    <t>cancelWindow</t>
+  </si>
+  <si>
     <t>longDescription</t>
   </si>
   <si>
@@ -103,12 +115,6 @@
     <t>images</t>
   </si>
   <si>
-    <t>manufacturerOrPackerName</t>
-  </si>
-  <si>
-    <t>manufacturerOrPackerAddress</t>
-  </si>
-  <si>
     <t>commonOrGenericNameOfCommodity</t>
   </si>
   <si>
@@ -133,7 +139,7 @@
     <t>SDN123</t>
   </si>
   <si>
-    <t>Oil &amp; Ghee</t>
+    <t>Fruits and Vegetables</t>
   </si>
   <si>
     <t>1234</t>
@@ -142,25 +148,19 @@
     <t>Kilogram</t>
   </si>
   <si>
-    <t>100 kg</t>
-  </si>
-  <si>
-    <t>12 cm</t>
-  </si>
-  <si>
-    <t>1 cm</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>PT30M</t>
+    <t>VEG</t>
   </si>
   <si>
     <t>Parle</t>
   </si>
   <si>
-    <t>12/1/2023</t>
+    <t>2023/12/07</t>
+  </si>
+  <si>
+    <t>jbl</t>
   </si>
   <si>
     <t>Info</t>
@@ -169,9 +169,6 @@
     <t>info</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -179,23 +176,11 @@
   </si>
   <si>
     <t>IRCTC</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>11/23</t>
   </si>
   <si>
     <t>1. images should be a public url accessible over internet
 2. maxAllowedQty should not be 0
 3. all fields are mandatory as of now</t>
-  </si>
-  <si>
-    <t>MDH masala</t>
-  </si>
-  <si>
-    <t>Masala &amp; Seasoning</t>
   </si>
 </sst>
 </file>
@@ -220,15 +205,28 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,21 +235,55 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -489,8 +521,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="26.38"/>
-    <col customWidth="1" min="37" max="38" width="20.38"/>
+    <col customWidth="1" min="9" max="9" width="26.38"/>
+    <col customWidth="1" min="25" max="25" width="22.88"/>
+    <col customWidth="1" min="35" max="35" width="34.0"/>
+    <col customWidth="1" min="36" max="36" width="37.25"/>
+    <col customWidth="1" min="37" max="37" width="23.13"/>
+    <col customWidth="1" min="38" max="38" width="35.5"/>
+    <col customWidth="1" min="39" max="39" width="48.75"/>
+    <col customWidth="1" min="40" max="40" width="20.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -500,7 +538,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -518,10 +556,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -554,19 +592,19 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -581,7 +619,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -605,268 +643,170 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="5"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>37</v>
+      <c r="A2" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="4">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6">
+        <v>400.0</v>
+      </c>
+      <c r="D2" s="7">
         <v>12345.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="7">
         <v>100.0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="7">
         <v>100.0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7">
         <v>5.0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="7">
         <v>100.0</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="7">
         <v>1.0</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AD2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="AG2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AK2" s="7">
+        <v>9.87654321234567E14</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>9.87654321234567E14</v>
+      </c>
+      <c r="AM2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12345.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="AN2" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="L2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E3">
+  <conditionalFormatting sqref="E2:F2">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="I2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+      <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
-      <formula1>"Masala &amp; Seasoning,Oil &amp; Ghee,Fruits and Vegetables,Eggs, Meat &amp; Fish,Cleaning &amp; Household,Bakery, Cakes &amp; Dairy,Pet Care,Stationery,Dairy and Cheese,Snacks, Dry Fruits, Nuts,Pasta, Soup and Noodles,Cereals and Breakfast,Sauces, Spreads and Dips,Chocolate"&amp;"s and Biscuits,Cooking and Baking Needs,Tinned and Processed Food,Atta, Flours and Sooji,Rice and Rice Products,Dals and Pulses,Salt, Sugar and Jaggery,Energy and Soft Drinks,Water,Tea and Coffee,Fruit Juices and Fruit Drinks,Snacks and Namkeen,Ready to C"&amp;"ook and Eat,Pickles and Chutney,Indian Sweets,Frozen Vegetables,Frozen Snacks,Gift Voucher"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Masala &amp; Seasoning,Oil &amp; Ghee,Fruits and Vegetables,Eggs,Meat &amp; Fish,Cleaning &amp; Household,Bakery,Cakes &amp; Dairy,Pet Care,Stationery,Dairy and Cheese,Snacks,Dry Fruits,Nuts,Pasta,Soup and Noodles,Cereals and Breakfast,Sauces,Spreads and Dips,Chocolates and "&amp;"Biscuits,Cooking and Baking Needs,Tinned and Processed Food,Atta,Flours and Sooji,Rice and Rice Products,Dals and Pulses,Salt,Sugar and Jaggery,Energy and Soft Drinks,Water,Tea and Coffee,Fruit Juices and Fruit Drinks,Snacks and Namkeen,Ready to Cook and "&amp;"Eat,Pickles and Chutney,Indian Sweets,Frozen Vegetables,Frozen Snacks,Gift Voucher"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
       <formula1>"0,5,12,18,28"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2:R3 T2:T3 Z2:Z3 AB2:AB3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S2 AC2 AF2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2">
       <formula1>"Kilogram,Grams,Meter,Centemeter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="U2">
+      <formula1>"VEG,NONVEG,EGG"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AD2"/>
-    <hyperlink r:id="rId2" ref="AD3"/>
+    <hyperlink r:id="rId1" ref="AH2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>